--- a/code/data/data.xlsx
+++ b/code/data/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Stadsdeel</t>
   </si>
@@ -133,6 +133,39 @@
   </si>
   <si>
     <t>&gt; 681</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>A00</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A09</t>
   </si>
 </sst>
 </file>
@@ -187,8 +220,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="127">
+  <cellStyleXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -322,7 +367,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="127">
+  <cellStyles count="139">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -386,6 +431,12 @@
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -449,6 +500,12 @@
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -778,13 +835,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK22"/>
+  <dimension ref="A1:AE19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A13" sqref="A13:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="16" max="16" width="26.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
@@ -978,584 +1039,931 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B3">
-        <v>0.28999999999999998</v>
+        <v>0.24</v>
       </c>
       <c r="C3">
-        <v>0.43</v>
+        <v>0.17</v>
       </c>
       <c r="D3">
-        <v>0.28000000000000003</v>
+        <v>0.59</v>
       </c>
       <c r="E3">
-        <v>0.55000000000000004</v>
+        <v>0.41</v>
       </c>
       <c r="F3">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="G3">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H3">
-        <v>0.11</v>
-      </c>
-      <c r="I3">
-        <v>2385</v>
-      </c>
-      <c r="J3">
-        <v>0.34</v>
-      </c>
-      <c r="K3">
-        <v>0.17</v>
-      </c>
-      <c r="L3">
-        <v>0.15</v>
-      </c>
-      <c r="M3">
-        <v>0.06</v>
-      </c>
-      <c r="N3">
-        <v>0.09</v>
-      </c>
-      <c r="O3">
-        <v>0.2</v>
-      </c>
-      <c r="P3">
-        <v>0.12</v>
-      </c>
-      <c r="Q3">
-        <v>0.17</v>
-      </c>
-      <c r="R3">
-        <v>0.27</v>
-      </c>
-      <c r="S3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="T3">
-        <v>0.08</v>
-      </c>
-      <c r="U3">
-        <v>0.06</v>
-      </c>
-      <c r="V3">
-        <v>0.03</v>
-      </c>
-      <c r="W3">
-        <v>0.21</v>
-      </c>
-      <c r="X3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Y3">
-        <v>0.2</v>
-      </c>
-      <c r="Z3">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AA3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AB3">
-        <v>0.03</v>
-      </c>
-      <c r="AC3">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AD3">
-        <v>0.3</v>
-      </c>
-      <c r="AE3">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B4">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="C4">
-        <v>0.55000000000000004</v>
+        <v>0.06</v>
       </c>
       <c r="D4">
-        <v>0.13</v>
+        <v>0.71</v>
       </c>
       <c r="E4">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="F4">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
       <c r="G4">
         <v>0.14000000000000001</v>
       </c>
       <c r="H4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I4">
-        <v>2312</v>
-      </c>
-      <c r="J4">
-        <v>0.31</v>
-      </c>
-      <c r="K4">
-        <v>0.17</v>
-      </c>
-      <c r="L4">
-        <v>0.17</v>
-      </c>
-      <c r="M4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N4">
-        <v>0.1</v>
-      </c>
-      <c r="O4">
-        <v>0.17</v>
-      </c>
-      <c r="P4">
-        <v>0.03</v>
-      </c>
-      <c r="Q4">
-        <v>0.16</v>
-      </c>
-      <c r="R4">
-        <v>0.15</v>
-      </c>
-      <c r="S4">
-        <v>0.49</v>
-      </c>
-      <c r="T4">
-        <v>0.13</v>
-      </c>
-      <c r="U4">
-        <v>0.04</v>
-      </c>
-      <c r="V4">
-        <v>0.02</v>
-      </c>
-      <c r="W4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="X4">
-        <v>0.1</v>
-      </c>
-      <c r="Y4">
-        <v>0.2</v>
-      </c>
-      <c r="Z4">
         <v>0.3</v>
-      </c>
-      <c r="AA4">
-        <v>0.25</v>
-      </c>
-      <c r="AB4">
-        <v>0.02</v>
-      </c>
-      <c r="AC4">
-        <v>0.43</v>
-      </c>
-      <c r="AD4">
-        <v>0.37</v>
-      </c>
-      <c r="AE4">
-        <v>0.18</v>
       </c>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B5">
-        <v>0.32</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C5">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="D5">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="E5">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
       <c r="F5">
-        <v>0.28000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G5">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="H5">
-        <v>0.21</v>
-      </c>
-      <c r="I5">
-        <v>2887</v>
-      </c>
-      <c r="J5">
-        <v>0.26</v>
-      </c>
-      <c r="K5">
-        <v>0.16</v>
-      </c>
-      <c r="L5">
-        <v>0.13</v>
-      </c>
-      <c r="M5">
-        <v>0.05</v>
-      </c>
-      <c r="N5">
-        <v>0.11</v>
-      </c>
-      <c r="O5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="P5">
-        <v>0.11</v>
-      </c>
-      <c r="Q5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="R5">
-        <v>0.31</v>
-      </c>
-      <c r="S5">
-        <v>0.24</v>
-      </c>
-      <c r="T5">
-        <v>0.16</v>
-      </c>
-      <c r="U5">
-        <v>0.04</v>
-      </c>
-      <c r="V5">
-        <v>0.03</v>
-      </c>
-      <c r="W5">
-        <v>0.16</v>
-      </c>
-      <c r="X5">
-        <v>0.11</v>
-      </c>
-      <c r="Y5">
-        <v>0.15</v>
-      </c>
-      <c r="Z5">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AA5">
-        <v>0.25</v>
-      </c>
-      <c r="AB5">
-        <v>0.02</v>
-      </c>
-      <c r="AC5">
-        <v>0.22</v>
-      </c>
-      <c r="AD5">
-        <v>0.31</v>
-      </c>
-      <c r="AE5">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B6">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="C6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.38</v>
+      </c>
+      <c r="E6">
+        <v>0.31</v>
+      </c>
+      <c r="F6">
+        <v>0.17</v>
+      </c>
+      <c r="G6">
+        <v>0.02</v>
+      </c>
+      <c r="H6">
         <v>0.51</v>
-      </c>
-      <c r="D6">
-        <v>0.17</v>
-      </c>
-      <c r="E6">
-        <v>0.4</v>
-      </c>
-      <c r="F6">
-        <v>0.35</v>
-      </c>
-      <c r="G6">
-        <v>0.1</v>
-      </c>
-      <c r="H6">
-        <v>0.15</v>
-      </c>
-      <c r="I6">
-        <v>2596</v>
-      </c>
-      <c r="J6">
-        <v>0.3</v>
-      </c>
-      <c r="K6">
-        <v>0.15</v>
-      </c>
-      <c r="L6">
-        <v>0.15</v>
-      </c>
-      <c r="M6">
-        <v>0.05</v>
-      </c>
-      <c r="N6">
-        <v>0.08</v>
-      </c>
-      <c r="O6">
-        <v>0.27</v>
-      </c>
-      <c r="P6">
-        <v>0.09</v>
-      </c>
-      <c r="Q6">
-        <v>0.13</v>
-      </c>
-      <c r="R6">
-        <v>0.21</v>
-      </c>
-      <c r="S6">
-        <v>0.4</v>
-      </c>
-      <c r="T6">
-        <v>0.13</v>
-      </c>
-      <c r="U6">
-        <v>0.05</v>
-      </c>
-      <c r="V6">
-        <v>0.04</v>
-      </c>
-      <c r="W6">
-        <v>0.15</v>
-      </c>
-      <c r="X6">
-        <v>0.12</v>
-      </c>
-      <c r="Y6">
-        <v>0.22</v>
-      </c>
-      <c r="Z6">
-        <v>0.3</v>
-      </c>
-      <c r="AA6">
-        <v>0.17</v>
-      </c>
-      <c r="AB6">
-        <v>0.02</v>
-      </c>
-      <c r="AC6">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AD6">
-        <v>0.31</v>
-      </c>
-      <c r="AE6">
-        <v>0.38</v>
       </c>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B7">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="C7">
-        <v>0.67</v>
+        <v>0.38</v>
       </c>
       <c r="D7">
-        <v>0.04</v>
+        <v>0.31</v>
       </c>
       <c r="E7">
+        <v>0.33</v>
+      </c>
+      <c r="F7">
         <v>0.38</v>
       </c>
-      <c r="F7">
-        <v>0.4</v>
-      </c>
       <c r="G7">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="H7">
-        <v>0.09</v>
-      </c>
-      <c r="I7">
-        <v>2146</v>
-      </c>
-      <c r="J7">
-        <v>0.39</v>
-      </c>
-      <c r="K7">
-        <v>0.18</v>
-      </c>
-      <c r="L7">
-        <v>0.13</v>
-      </c>
-      <c r="M7">
-        <v>0.06</v>
-      </c>
-      <c r="N7">
-        <v>0.08</v>
-      </c>
-      <c r="O7">
-        <v>0.16</v>
-      </c>
-      <c r="P7">
-        <v>0.04</v>
-      </c>
-      <c r="Q7">
-        <v>0.16</v>
-      </c>
-      <c r="R7">
-        <v>0.13</v>
-      </c>
-      <c r="S7">
-        <v>0.54</v>
-      </c>
-      <c r="T7">
-        <v>0.1</v>
-      </c>
-      <c r="U7">
-        <v>0.03</v>
-      </c>
-      <c r="V7">
-        <v>0.03</v>
-      </c>
-      <c r="W7">
-        <v>0.12</v>
-      </c>
-      <c r="X7">
-        <v>0.09</v>
-      </c>
-      <c r="Y7">
-        <v>0.19</v>
-      </c>
-      <c r="Z7">
-        <v>0.31</v>
-      </c>
-      <c r="AA7">
-        <v>0.26</v>
-      </c>
-      <c r="AB7">
-        <v>0.02</v>
-      </c>
-      <c r="AC7">
-        <v>0.46</v>
-      </c>
-      <c r="AD7">
-        <v>0.36</v>
-      </c>
-      <c r="AE7">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="8" spans="1:31">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>0.31</v>
+      </c>
+      <c r="C8">
+        <v>0.44</v>
+      </c>
+      <c r="D8">
+        <v>0.24</v>
+      </c>
+      <c r="E8">
+        <v>0.42</v>
+      </c>
+      <c r="F8">
+        <v>0.32</v>
+      </c>
+      <c r="G8">
+        <v>0.17</v>
+      </c>
+      <c r="H8">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>0.33</v>
+      </c>
+      <c r="C9">
+        <v>0.37</v>
+      </c>
+      <c r="D9">
+        <v>0.3</v>
+      </c>
+      <c r="E9">
+        <v>0.59</v>
+      </c>
+      <c r="F9">
+        <v>0.24</v>
+      </c>
+      <c r="G9">
+        <v>0.05</v>
+      </c>
+      <c r="H9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>0.11</v>
+      </c>
+      <c r="D10">
+        <v>0.39</v>
+      </c>
+      <c r="E10">
+        <v>0.4</v>
+      </c>
+      <c r="F10">
+        <v>0.37</v>
+      </c>
+      <c r="G10">
+        <v>0.03</v>
+      </c>
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>0.32</v>
+      </c>
+      <c r="C11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.38</v>
+      </c>
+      <c r="E11">
+        <v>0.59</v>
+      </c>
+      <c r="F11">
+        <v>0.23</v>
+      </c>
+      <c r="G11">
+        <v>0.04</v>
+      </c>
+      <c r="H11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>0.32</v>
+      </c>
+      <c r="C12">
+        <v>0.6</v>
+      </c>
+      <c r="D12">
+        <v>0.08</v>
+      </c>
+      <c r="E12">
+        <v>0.45</v>
+      </c>
+      <c r="F12">
+        <v>0.42</v>
+      </c>
+      <c r="G12">
+        <v>0.03</v>
+      </c>
+      <c r="H12">
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C13">
+        <v>0.43</v>
+      </c>
+      <c r="D13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F13">
+        <v>0.27</v>
+      </c>
+      <c r="G13">
+        <v>0.08</v>
+      </c>
+      <c r="H13">
+        <v>0.11</v>
+      </c>
+      <c r="I13">
+        <v>2385</v>
+      </c>
+      <c r="J13">
+        <v>0.34</v>
+      </c>
+      <c r="K13">
+        <v>0.17</v>
+      </c>
+      <c r="L13">
+        <v>0.15</v>
+      </c>
+      <c r="M13">
+        <v>0.06</v>
+      </c>
+      <c r="N13">
+        <v>0.09</v>
+      </c>
+      <c r="O13">
+        <v>0.2</v>
+      </c>
+      <c r="P13">
+        <v>0.12</v>
+      </c>
+      <c r="Q13">
+        <v>0.17</v>
+      </c>
+      <c r="R13">
+        <v>0.27</v>
+      </c>
+      <c r="S13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T13">
+        <v>0.08</v>
+      </c>
+      <c r="U13">
+        <v>0.06</v>
+      </c>
+      <c r="V13">
+        <v>0.03</v>
+      </c>
+      <c r="W13">
+        <v>0.21</v>
+      </c>
+      <c r="X13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y13">
+        <v>0.2</v>
+      </c>
+      <c r="Z13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AA13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB13">
+        <v>0.03</v>
+      </c>
+      <c r="AC13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AD13">
+        <v>0.3</v>
+      </c>
+      <c r="AE13">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>0.32</v>
+      </c>
+      <c r="C14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D14">
+        <v>0.13</v>
+      </c>
+      <c r="E14">
+        <v>0.36</v>
+      </c>
+      <c r="F14">
+        <v>0.36</v>
+      </c>
+      <c r="G14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I14">
+        <v>2312</v>
+      </c>
+      <c r="J14">
+        <v>0.31</v>
+      </c>
+      <c r="K14">
+        <v>0.17</v>
+      </c>
+      <c r="L14">
+        <v>0.17</v>
+      </c>
+      <c r="M14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N14">
+        <v>0.1</v>
+      </c>
+      <c r="O14">
+        <v>0.17</v>
+      </c>
+      <c r="P14">
+        <v>0.03</v>
+      </c>
+      <c r="Q14">
+        <v>0.16</v>
+      </c>
+      <c r="R14">
+        <v>0.15</v>
+      </c>
+      <c r="S14">
+        <v>0.49</v>
+      </c>
+      <c r="T14">
+        <v>0.13</v>
+      </c>
+      <c r="U14">
+        <v>0.04</v>
+      </c>
+      <c r="V14">
+        <v>0.02</v>
+      </c>
+      <c r="W14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="X14">
+        <v>0.1</v>
+      </c>
+      <c r="Y14">
+        <v>0.2</v>
+      </c>
+      <c r="Z14">
+        <v>0.3</v>
+      </c>
+      <c r="AA14">
+        <v>0.25</v>
+      </c>
+      <c r="AB14">
+        <v>0.02</v>
+      </c>
+      <c r="AC14">
+        <v>0.43</v>
+      </c>
+      <c r="AD14">
+        <v>0.37</v>
+      </c>
+      <c r="AE14">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>0.32</v>
+      </c>
+      <c r="C15">
+        <v>0.3</v>
+      </c>
+      <c r="D15">
+        <v>0.38</v>
+      </c>
+      <c r="E15">
+        <v>0.41</v>
+      </c>
+      <c r="F15">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G15">
+        <v>0.11</v>
+      </c>
+      <c r="H15">
+        <v>0.21</v>
+      </c>
+      <c r="I15">
+        <v>2887</v>
+      </c>
+      <c r="J15">
+        <v>0.26</v>
+      </c>
+      <c r="K15">
+        <v>0.16</v>
+      </c>
+      <c r="L15">
+        <v>0.13</v>
+      </c>
+      <c r="M15">
+        <v>0.05</v>
+      </c>
+      <c r="N15">
+        <v>0.11</v>
+      </c>
+      <c r="O15">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P15">
+        <v>0.11</v>
+      </c>
+      <c r="Q15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R15">
+        <v>0.31</v>
+      </c>
+      <c r="S15">
+        <v>0.24</v>
+      </c>
+      <c r="T15">
+        <v>0.16</v>
+      </c>
+      <c r="U15">
+        <v>0.04</v>
+      </c>
+      <c r="V15">
+        <v>0.03</v>
+      </c>
+      <c r="W15">
+        <v>0.16</v>
+      </c>
+      <c r="X15">
+        <v>0.11</v>
+      </c>
+      <c r="Y15">
+        <v>0.15</v>
+      </c>
+      <c r="Z15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AA15">
+        <v>0.25</v>
+      </c>
+      <c r="AB15">
+        <v>0.02</v>
+      </c>
+      <c r="AC15">
+        <v>0.22</v>
+      </c>
+      <c r="AD15">
+        <v>0.31</v>
+      </c>
+      <c r="AE15">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>0.32</v>
+      </c>
+      <c r="C16">
+        <v>0.51</v>
+      </c>
+      <c r="D16">
+        <v>0.17</v>
+      </c>
+      <c r="E16">
+        <v>0.4</v>
+      </c>
+      <c r="F16">
+        <v>0.35</v>
+      </c>
+      <c r="G16">
+        <v>0.1</v>
+      </c>
+      <c r="H16">
+        <v>0.15</v>
+      </c>
+      <c r="I16">
+        <v>2596</v>
+      </c>
+      <c r="J16">
+        <v>0.3</v>
+      </c>
+      <c r="K16">
+        <v>0.15</v>
+      </c>
+      <c r="L16">
+        <v>0.15</v>
+      </c>
+      <c r="M16">
+        <v>0.05</v>
+      </c>
+      <c r="N16">
+        <v>0.08</v>
+      </c>
+      <c r="O16">
+        <v>0.27</v>
+      </c>
+      <c r="P16">
+        <v>0.09</v>
+      </c>
+      <c r="Q16">
+        <v>0.13</v>
+      </c>
+      <c r="R16">
+        <v>0.21</v>
+      </c>
+      <c r="S16">
+        <v>0.4</v>
+      </c>
+      <c r="T16">
+        <v>0.13</v>
+      </c>
+      <c r="U16">
+        <v>0.05</v>
+      </c>
+      <c r="V16">
+        <v>0.04</v>
+      </c>
+      <c r="W16">
+        <v>0.15</v>
+      </c>
+      <c r="X16">
+        <v>0.12</v>
+      </c>
+      <c r="Y16">
+        <v>0.22</v>
+      </c>
+      <c r="Z16">
+        <v>0.3</v>
+      </c>
+      <c r="AA16">
+        <v>0.17</v>
+      </c>
+      <c r="AB16">
+        <v>0.02</v>
+      </c>
+      <c r="AC16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AD16">
+        <v>0.31</v>
+      </c>
+      <c r="AE16">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C17">
+        <v>0.67</v>
+      </c>
+      <c r="D17">
+        <v>0.04</v>
+      </c>
+      <c r="E17">
+        <v>0.38</v>
+      </c>
+      <c r="F17">
+        <v>0.4</v>
+      </c>
+      <c r="G17">
+        <v>0.13</v>
+      </c>
+      <c r="H17">
+        <v>0.09</v>
+      </c>
+      <c r="I17">
+        <v>2146</v>
+      </c>
+      <c r="J17">
+        <v>0.39</v>
+      </c>
+      <c r="K17">
+        <v>0.18</v>
+      </c>
+      <c r="L17">
+        <v>0.13</v>
+      </c>
+      <c r="M17">
+        <v>0.06</v>
+      </c>
+      <c r="N17">
+        <v>0.08</v>
+      </c>
+      <c r="O17">
+        <v>0.16</v>
+      </c>
+      <c r="P17">
+        <v>0.04</v>
+      </c>
+      <c r="Q17">
+        <v>0.16</v>
+      </c>
+      <c r="R17">
+        <v>0.13</v>
+      </c>
+      <c r="S17">
+        <v>0.54</v>
+      </c>
+      <c r="T17">
+        <v>0.1</v>
+      </c>
+      <c r="U17">
+        <v>0.03</v>
+      </c>
+      <c r="V17">
+        <v>0.03</v>
+      </c>
+      <c r="W17">
+        <v>0.12</v>
+      </c>
+      <c r="X17">
+        <v>0.09</v>
+      </c>
+      <c r="Y17">
+        <v>0.19</v>
+      </c>
+      <c r="Z17">
+        <v>0.31</v>
+      </c>
+      <c r="AA17">
+        <v>0.26</v>
+      </c>
+      <c r="AB17">
+        <v>0.02</v>
+      </c>
+      <c r="AC17">
+        <v>0.46</v>
+      </c>
+      <c r="AD17">
+        <v>0.36</v>
+      </c>
+      <c r="AE17">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B18">
         <v>0.3</v>
       </c>
-      <c r="C8">
+      <c r="C18">
         <v>0.61</v>
       </c>
-      <c r="D8">
+      <c r="D18">
         <v>0.09</v>
       </c>
-      <c r="E8">
+      <c r="E18">
         <v>0.26</v>
       </c>
-      <c r="F8">
+      <c r="F18">
         <v>0.46</v>
       </c>
-      <c r="G8">
+      <c r="G18">
         <v>0.18</v>
       </c>
-      <c r="H8">
+      <c r="H18">
         <v>0.1</v>
       </c>
-      <c r="I8">
+      <c r="I18">
         <v>2014</v>
       </c>
-      <c r="J8">
+      <c r="J18">
         <v>0.44</v>
       </c>
-      <c r="K8">
+      <c r="K18">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L8">
+      <c r="L18">
         <v>0.15</v>
       </c>
-      <c r="M8">
+      <c r="M18">
         <v>0.04</v>
       </c>
-      <c r="N8">
+      <c r="N18">
         <v>0.09</v>
       </c>
-      <c r="O8">
+      <c r="O18">
         <v>0.13</v>
       </c>
-      <c r="P8">
+      <c r="P18">
         <v>0.04</v>
       </c>
-      <c r="Q8">
+      <c r="Q18">
         <v>0.21</v>
       </c>
-      <c r="R8">
+      <c r="R18">
         <v>0.1</v>
       </c>
-      <c r="S8">
+      <c r="S18">
         <v>0.52</v>
       </c>
-      <c r="T8">
+      <c r="T18">
         <v>0.08</v>
       </c>
-      <c r="U8">
+      <c r="U18">
         <v>0.03</v>
       </c>
-      <c r="V8">
+      <c r="V18">
         <v>0.05</v>
       </c>
-      <c r="W8">
+      <c r="W18">
         <v>0.14000000000000001</v>
       </c>
-      <c r="X8">
+      <c r="X18">
         <v>0.09</v>
       </c>
-      <c r="Y8">
+      <c r="Y18">
         <v>0.21</v>
       </c>
-      <c r="Z8">
+      <c r="Z18">
         <v>0.31</v>
       </c>
-      <c r="AA8">
+      <c r="AA18">
         <v>0.21</v>
       </c>
-      <c r="AB8">
+      <c r="AB18">
         <v>0.03</v>
       </c>
-      <c r="AC8">
+      <c r="AC18">
         <v>0.43</v>
       </c>
-      <c r="AD8">
+      <c r="AD18">
         <v>0.4</v>
       </c>
-      <c r="AE8">
+      <c r="AE18">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="23:37">
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-    </row>
-    <row r="22" spans="23:37">
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
+    <row r="19" spans="1:31">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>0.32</v>
+      </c>
+      <c r="C19">
+        <v>0.46</v>
+      </c>
+      <c r="D19">
+        <v>0.22</v>
+      </c>
+      <c r="E19">
+        <v>0.41</v>
+      </c>
+      <c r="F19">
+        <v>0.33</v>
+      </c>
+      <c r="G19">
+        <v>0.11</v>
+      </c>
+      <c r="H19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I19">
+        <v>2489</v>
+      </c>
+      <c r="J19">
+        <v>0.32</v>
+      </c>
+      <c r="K19">
+        <v>0.16</v>
+      </c>
+      <c r="L19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M19">
+        <v>0.06</v>
+      </c>
+      <c r="N19">
+        <v>0.09</v>
+      </c>
+      <c r="O19">
+        <v>0.23</v>
+      </c>
+      <c r="P19">
+        <v>0.1</v>
+      </c>
+      <c r="Q19">
+        <v>0.16</v>
+      </c>
+      <c r="R19">
+        <v>0.22</v>
+      </c>
+      <c r="S19">
+        <v>0.35</v>
+      </c>
+      <c r="T19">
+        <v>0.13</v>
+      </c>
+      <c r="U19">
+        <v>0.05</v>
+      </c>
+      <c r="V19">
+        <v>0.06</v>
+      </c>
+      <c r="W19">
+        <v>0.18</v>
+      </c>
+      <c r="X19">
+        <v>0.11</v>
+      </c>
+      <c r="Y19">
+        <v>0.18</v>
+      </c>
+      <c r="Z19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AA19">
+        <v>0.19</v>
+      </c>
+      <c r="AB19">
+        <v>0.03</v>
+      </c>
+      <c r="AC19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AD19">
+        <v>0.33</v>
+      </c>
+      <c r="AE19">
+        <v>0.35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
